--- a/JIRA_2023-09-09False.xlsx
+++ b/JIRA_2023-09-09False.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="288">
   <si>
     <t>project</t>
   </si>
@@ -289,9 +289,15 @@
     <t>[3D動效]戰鷹動作</t>
   </si>
   <si>
+    <t>【Ebingo】 項目支援</t>
+  </si>
+  <si>
     <t>將鬥雞改成老鷹~並進行優化~</t>
   </si>
   <si>
+    <t>【UI】iSlot</t>
+  </si>
+  <si>
     <t>【 Sventa 】個人零碎小項目</t>
   </si>
   <si>
@@ -442,6 +448,9 @@
     <t>Ariel.W</t>
   </si>
   <si>
+    <t>Freeman.Y</t>
+  </si>
+  <si>
     <t>Gary.W</t>
   </si>
   <si>
@@ -454,6 +463,102 @@
     <t>IanWu</t>
   </si>
   <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>5.83</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>7.67</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>1.42</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41.5</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>7.25</t>
+  </si>
+  <si>
+    <t>21.75</t>
+  </si>
+  <si>
     <t>DONE</t>
   </si>
   <si>
@@ -694,7 +799,13 @@
     <t>http://jira.trevi.cc/browse/DT-23</t>
   </si>
   <si>
+    <t>http://jira.trevi.cc/browse/DT-18</t>
+  </si>
+  <si>
     <t>http://jira.trevi.cc/browse/DT-12</t>
+  </si>
+  <si>
+    <t>http://jira.trevi.cc/browse/DT-5</t>
   </si>
   <si>
     <t>http://jira.trevi.cc/browse/DT-4</t>
@@ -1137,7 +1248,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F176"/>
+  <dimension ref="A1:F178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1171,17 +1282,16 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2">
-        <f>1*1+30/60</f>
-        <v>0</v>
+        <v>118</v>
+      </c>
+      <c r="D2" t="s">
+        <v>149</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1192,17 +1302,16 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3">
-        <f>1*1</f>
-        <v>0</v>
+        <v>119</v>
+      </c>
+      <c r="D3" t="s">
+        <v>150</v>
       </c>
       <c r="E3" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1213,17 +1322,16 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4">
-        <f>30/60</f>
-        <v>0</v>
+        <v>118</v>
+      </c>
+      <c r="D4" t="s">
+        <v>151</v>
       </c>
       <c r="E4" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1234,17 +1342,16 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5">
-        <f>6*1</f>
-        <v>0</v>
+        <v>120</v>
+      </c>
+      <c r="D5" t="s">
+        <v>152</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1255,17 +1362,16 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6">
-        <f>30/60</f>
-        <v>0</v>
+        <v>118</v>
+      </c>
+      <c r="D6" t="s">
+        <v>151</v>
       </c>
       <c r="E6" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1276,17 +1382,16 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7">
-        <f>30/60</f>
-        <v>0</v>
+        <v>119</v>
+      </c>
+      <c r="D7" t="s">
+        <v>151</v>
       </c>
       <c r="E7" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1297,17 +1402,16 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8">
-        <f>15/60</f>
-        <v>0</v>
+        <v>118</v>
+      </c>
+      <c r="D8" t="s">
+        <v>153</v>
       </c>
       <c r="E8" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1318,17 +1422,16 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9">
-        <f>30/60</f>
-        <v>0</v>
+        <v>121</v>
+      </c>
+      <c r="D9" t="s">
+        <v>151</v>
       </c>
       <c r="E9" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1339,17 +1442,16 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10">
-        <f>6*1</f>
-        <v>0</v>
+        <v>120</v>
+      </c>
+      <c r="D10" t="s">
+        <v>152</v>
       </c>
       <c r="E10" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1360,17 +1462,16 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11">
-        <f>3*1</f>
-        <v>0</v>
+        <v>120</v>
+      </c>
+      <c r="D11" t="s">
+        <v>154</v>
       </c>
       <c r="E11" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1381,17 +1482,16 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D12">
-        <f>4*1</f>
-        <v>0</v>
+        <v>119</v>
+      </c>
+      <c r="D12" t="s">
+        <v>155</v>
       </c>
       <c r="E12" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1402,17 +1502,16 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13">
-        <f>2*1</f>
-        <v>0</v>
+        <v>118</v>
+      </c>
+      <c r="D13" t="s">
+        <v>156</v>
       </c>
       <c r="E13" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1423,17 +1522,16 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14">
-        <f>30/60</f>
-        <v>0</v>
+        <v>118</v>
+      </c>
+      <c r="D14" t="s">
+        <v>151</v>
       </c>
       <c r="E14" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1444,17 +1542,16 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D15">
-        <f>2*1+30/60</f>
-        <v>0</v>
+        <v>119</v>
+      </c>
+      <c r="D15" t="s">
+        <v>157</v>
       </c>
       <c r="E15" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1465,17 +1562,16 @@
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D16">
-        <f>3*1+30/60</f>
-        <v>0</v>
+        <v>119</v>
+      </c>
+      <c r="D16" t="s">
+        <v>158</v>
       </c>
       <c r="E16" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1486,17 +1582,16 @@
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17">
-        <f>1*1</f>
-        <v>0</v>
+        <v>119</v>
+      </c>
+      <c r="D17" t="s">
+        <v>150</v>
       </c>
       <c r="E17" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1507,17 +1602,16 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18">
-        <f>2*1</f>
-        <v>0</v>
+        <v>122</v>
+      </c>
+      <c r="D18" t="s">
+        <v>156</v>
       </c>
       <c r="E18" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1528,17 +1622,16 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19">
-        <f>2*1</f>
-        <v>0</v>
+        <v>122</v>
+      </c>
+      <c r="D19" t="s">
+        <v>156</v>
       </c>
       <c r="E19" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1549,17 +1642,16 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>121</v>
-      </c>
-      <c r="D20">
-        <f>1*1</f>
-        <v>0</v>
+        <v>123</v>
+      </c>
+      <c r="D20" t="s">
+        <v>150</v>
       </c>
       <c r="E20" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1570,17 +1662,16 @@
         <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21">
-        <f>4*8</f>
-        <v>0</v>
+        <v>124</v>
+      </c>
+      <c r="D21" t="s">
+        <v>159</v>
       </c>
       <c r="E21" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1591,17 +1682,16 @@
         <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>123</v>
-      </c>
-      <c r="D22">
-        <f>1*8+4*1</f>
-        <v>0</v>
+        <v>125</v>
+      </c>
+      <c r="D22" t="s">
+        <v>160</v>
       </c>
       <c r="E22" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1612,17 +1702,16 @@
         <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>124</v>
-      </c>
-      <c r="D23">
-        <f>3*8</f>
-        <v>0</v>
+        <v>126</v>
+      </c>
+      <c r="D23" t="s">
+        <v>161</v>
       </c>
       <c r="E23" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1633,17 +1722,16 @@
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
-      </c>
-      <c r="D24">
-        <f>1*8</f>
-        <v>0</v>
+        <v>124</v>
+      </c>
+      <c r="D24" t="s">
+        <v>162</v>
       </c>
       <c r="E24" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,17 +1742,16 @@
         <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25">
-        <f>3*8+4*1</f>
-        <v>0</v>
+        <v>125</v>
+      </c>
+      <c r="D25" t="s">
+        <v>163</v>
       </c>
       <c r="E25" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1675,17 +1762,16 @@
         <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>125</v>
-      </c>
-      <c r="D26">
-        <f>1*1</f>
-        <v>0</v>
+        <v>127</v>
+      </c>
+      <c r="D26" t="s">
+        <v>150</v>
       </c>
       <c r="E26" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>169</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1696,17 +1782,16 @@
         <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>116</v>
-      </c>
-      <c r="D27">
-        <f>2*1</f>
-        <v>0</v>
+        <v>118</v>
+      </c>
+      <c r="D27" t="s">
+        <v>156</v>
       </c>
       <c r="E27" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1717,17 +1802,16 @@
         <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>116</v>
-      </c>
-      <c r="D28">
-        <f>1*1</f>
-        <v>0</v>
+        <v>118</v>
+      </c>
+      <c r="D28" t="s">
+        <v>150</v>
       </c>
       <c r="E28" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1738,17 +1822,16 @@
         <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>125</v>
-      </c>
-      <c r="D29">
-        <f>1*1+30/60</f>
-        <v>0</v>
+        <v>127</v>
+      </c>
+      <c r="D29" t="s">
+        <v>149</v>
       </c>
       <c r="E29" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1759,17 +1842,16 @@
         <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>125</v>
-      </c>
-      <c r="D30">
-        <f>1*1</f>
-        <v>0</v>
+        <v>127</v>
+      </c>
+      <c r="D30" t="s">
+        <v>150</v>
       </c>
       <c r="E30" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1780,17 +1862,16 @@
         <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>125</v>
-      </c>
-      <c r="D31">
-        <f>1*1+30/60</f>
-        <v>0</v>
+        <v>127</v>
+      </c>
+      <c r="D31" t="s">
+        <v>149</v>
       </c>
       <c r="E31" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1801,17 +1882,16 @@
         <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>125</v>
-      </c>
-      <c r="D32">
-        <f>4*1</f>
-        <v>0</v>
+        <v>127</v>
+      </c>
+      <c r="D32" t="s">
+        <v>155</v>
       </c>
       <c r="E32" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>173</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1822,17 +1902,16 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>125</v>
-      </c>
-      <c r="D33">
-        <f>4*1</f>
-        <v>0</v>
+        <v>127</v>
+      </c>
+      <c r="D33" t="s">
+        <v>155</v>
       </c>
       <c r="E33" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>173</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1843,17 +1922,16 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>125</v>
-      </c>
-      <c r="D34">
-        <f>3*1</f>
-        <v>0</v>
+        <v>127</v>
+      </c>
+      <c r="D34" t="s">
+        <v>154</v>
       </c>
       <c r="E34" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1864,17 +1942,16 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>126</v>
-      </c>
-      <c r="D35">
-        <f>2*1</f>
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="D35" t="s">
+        <v>156</v>
       </c>
       <c r="E35" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1885,17 +1962,16 @@
         <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>126</v>
-      </c>
-      <c r="D36">
-        <f>2*1</f>
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="D36" t="s">
+        <v>156</v>
       </c>
       <c r="E36" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>176</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1906,17 +1982,16 @@
         <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>116</v>
-      </c>
-      <c r="D37">
-        <f>2*1</f>
-        <v>0</v>
+        <v>118</v>
+      </c>
+      <c r="D37" t="s">
+        <v>156</v>
       </c>
       <c r="E37" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>177</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1927,17 +2002,16 @@
         <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>116</v>
-      </c>
-      <c r="D38">
-        <f>1*1</f>
-        <v>0</v>
+        <v>118</v>
+      </c>
+      <c r="D38" t="s">
+        <v>150</v>
       </c>
       <c r="E38" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>177</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1948,17 +2022,16 @@
         <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>126</v>
-      </c>
-      <c r="D39">
-        <f>4*1</f>
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="D39" t="s">
+        <v>155</v>
       </c>
       <c r="E39" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1969,17 +2042,16 @@
         <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>126</v>
-      </c>
-      <c r="D40">
-        <f>4*1</f>
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="D40" t="s">
+        <v>155</v>
       </c>
       <c r="E40" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1990,17 +2062,16 @@
         <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>126</v>
-      </c>
-      <c r="D41">
-        <f>4*1</f>
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="D41" t="s">
+        <v>155</v>
       </c>
       <c r="E41" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2011,17 +2082,16 @@
         <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>126</v>
-      </c>
-      <c r="D42">
-        <f>10/60</f>
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="D42" t="s">
+        <v>164</v>
       </c>
       <c r="E42" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>179</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2032,17 +2102,16 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>126</v>
-      </c>
-      <c r="D43">
-        <f>10/60</f>
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="D43" t="s">
+        <v>164</v>
       </c>
       <c r="E43" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>179</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2053,17 +2122,16 @@
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>125</v>
-      </c>
-      <c r="D44">
-        <f>10/60</f>
-        <v>0</v>
+        <v>127</v>
+      </c>
+      <c r="D44" t="s">
+        <v>164</v>
       </c>
       <c r="E44" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2074,17 +2142,16 @@
         <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>127</v>
-      </c>
-      <c r="D45">
-        <f>1*8</f>
-        <v>0</v>
+        <v>129</v>
+      </c>
+      <c r="D45" t="s">
+        <v>162</v>
       </c>
       <c r="E45" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2095,17 +2162,16 @@
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>127</v>
-      </c>
-      <c r="D46">
-        <f>4*1</f>
-        <v>0</v>
+        <v>129</v>
+      </c>
+      <c r="D46" t="s">
+        <v>155</v>
       </c>
       <c r="E46" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2116,17 +2182,16 @@
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>127</v>
-      </c>
-      <c r="D47">
-        <f>2*1</f>
-        <v>0</v>
+        <v>129</v>
+      </c>
+      <c r="D47" t="s">
+        <v>156</v>
       </c>
       <c r="E47" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2137,17 +2202,16 @@
         <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>125</v>
-      </c>
-      <c r="D48">
-        <f>1*1</f>
-        <v>0</v>
+        <v>127</v>
+      </c>
+      <c r="D48" t="s">
+        <v>150</v>
       </c>
       <c r="E48" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2158,17 +2222,16 @@
         <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>125</v>
-      </c>
-      <c r="D49">
-        <f>1*1+30/60</f>
-        <v>0</v>
+        <v>127</v>
+      </c>
+      <c r="D49" t="s">
+        <v>149</v>
       </c>
       <c r="E49" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2179,17 +2242,16 @@
         <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>125</v>
-      </c>
-      <c r="D50">
-        <f>1*1+30/60</f>
-        <v>0</v>
+        <v>127</v>
+      </c>
+      <c r="D50" t="s">
+        <v>149</v>
       </c>
       <c r="E50" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2200,17 +2262,16 @@
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>125</v>
-      </c>
-      <c r="D51">
-        <f>2*1</f>
-        <v>0</v>
+        <v>127</v>
+      </c>
+      <c r="D51" t="s">
+        <v>156</v>
       </c>
       <c r="E51" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2221,17 +2282,16 @@
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>125</v>
-      </c>
-      <c r="D52">
-        <f>5*1+50/60</f>
-        <v>0</v>
+        <v>127</v>
+      </c>
+      <c r="D52" t="s">
+        <v>165</v>
       </c>
       <c r="E52" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2242,17 +2302,16 @@
         <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>125</v>
-      </c>
-      <c r="D53">
-        <f>1*1+30/60</f>
-        <v>0</v>
+        <v>127</v>
+      </c>
+      <c r="D53" t="s">
+        <v>149</v>
       </c>
       <c r="E53" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2263,17 +2322,16 @@
         <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>125</v>
-      </c>
-      <c r="D54">
-        <f>4*1</f>
-        <v>0</v>
+        <v>127</v>
+      </c>
+      <c r="D54" t="s">
+        <v>155</v>
       </c>
       <c r="E54" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2284,17 +2342,16 @@
         <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>126</v>
-      </c>
-      <c r="D55">
-        <f>4*1</f>
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="D55" t="s">
+        <v>155</v>
       </c>
       <c r="E55" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2305,17 +2362,16 @@
         <v>53</v>
       </c>
       <c r="C56" t="s">
-        <v>126</v>
-      </c>
-      <c r="D56">
-        <f>2*1</f>
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="D56" t="s">
+        <v>156</v>
       </c>
       <c r="E56" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2326,17 +2382,16 @@
         <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>125</v>
-      </c>
-      <c r="D57">
-        <f>3*1+30/60</f>
-        <v>0</v>
+        <v>127</v>
+      </c>
+      <c r="D57" t="s">
+        <v>158</v>
       </c>
       <c r="E57" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2347,17 +2402,16 @@
         <v>53</v>
       </c>
       <c r="C58" t="s">
-        <v>125</v>
-      </c>
-      <c r="D58">
-        <f>1*1+30/60</f>
-        <v>0</v>
+        <v>127</v>
+      </c>
+      <c r="D58" t="s">
+        <v>149</v>
       </c>
       <c r="E58" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2368,17 +2422,16 @@
         <v>54</v>
       </c>
       <c r="C59" t="s">
-        <v>127</v>
-      </c>
-      <c r="D59">
-        <f>1*8</f>
-        <v>0</v>
+        <v>129</v>
+      </c>
+      <c r="D59" t="s">
+        <v>162</v>
       </c>
       <c r="E59" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2389,17 +2442,16 @@
         <v>55</v>
       </c>
       <c r="C60" t="s">
-        <v>126</v>
-      </c>
-      <c r="D60">
-        <f>4*1</f>
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="D60" t="s">
+        <v>155</v>
       </c>
       <c r="E60" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2410,17 +2462,16 @@
         <v>55</v>
       </c>
       <c r="C61" t="s">
-        <v>126</v>
-      </c>
-      <c r="D61">
-        <f>2*1</f>
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="D61" t="s">
+        <v>156</v>
       </c>
       <c r="E61" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2431,17 +2482,16 @@
         <v>56</v>
       </c>
       <c r="C62" t="s">
-        <v>125</v>
-      </c>
-      <c r="D62">
-        <f>1*1+30/60</f>
-        <v>0</v>
+        <v>127</v>
+      </c>
+      <c r="D62" t="s">
+        <v>149</v>
       </c>
       <c r="E62" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2452,17 +2502,16 @@
         <v>57</v>
       </c>
       <c r="C63" t="s">
-        <v>116</v>
-      </c>
-      <c r="D63">
-        <f>2*1</f>
-        <v>0</v>
+        <v>118</v>
+      </c>
+      <c r="D63" t="s">
+        <v>156</v>
       </c>
       <c r="E63" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2473,17 +2522,16 @@
         <v>57</v>
       </c>
       <c r="C64" t="s">
-        <v>116</v>
-      </c>
-      <c r="D64">
-        <f>5*1</f>
-        <v>0</v>
+        <v>118</v>
+      </c>
+      <c r="D64" t="s">
+        <v>166</v>
       </c>
       <c r="E64" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2494,17 +2542,16 @@
         <v>58</v>
       </c>
       <c r="C65" t="s">
-        <v>127</v>
-      </c>
-      <c r="D65">
-        <f>1*8</f>
-        <v>0</v>
+        <v>129</v>
+      </c>
+      <c r="D65" t="s">
+        <v>162</v>
       </c>
       <c r="E65" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2515,17 +2562,16 @@
         <v>58</v>
       </c>
       <c r="C66" t="s">
-        <v>127</v>
-      </c>
-      <c r="D66">
-        <f>1*8</f>
-        <v>0</v>
+        <v>129</v>
+      </c>
+      <c r="D66" t="s">
+        <v>162</v>
       </c>
       <c r="E66" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2536,17 +2582,16 @@
         <v>58</v>
       </c>
       <c r="C67" t="s">
-        <v>127</v>
-      </c>
-      <c r="D67">
-        <f>2*1</f>
-        <v>0</v>
+        <v>129</v>
+      </c>
+      <c r="D67" t="s">
+        <v>156</v>
       </c>
       <c r="E67" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2557,17 +2602,16 @@
         <v>59</v>
       </c>
       <c r="C68" t="s">
-        <v>116</v>
-      </c>
-      <c r="D68">
-        <f>6*1+30/60</f>
-        <v>0</v>
+        <v>118</v>
+      </c>
+      <c r="D68" t="s">
+        <v>167</v>
       </c>
       <c r="E68" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2578,17 +2622,16 @@
         <v>59</v>
       </c>
       <c r="C69" t="s">
-        <v>116</v>
-      </c>
-      <c r="D69">
-        <f>5*1</f>
-        <v>0</v>
+        <v>118</v>
+      </c>
+      <c r="D69" t="s">
+        <v>166</v>
       </c>
       <c r="E69" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2599,17 +2642,16 @@
         <v>59</v>
       </c>
       <c r="C70" t="s">
-        <v>116</v>
-      </c>
-      <c r="D70">
-        <f>6*1</f>
-        <v>0</v>
+        <v>118</v>
+      </c>
+      <c r="D70" t="s">
+        <v>152</v>
       </c>
       <c r="E70" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2620,17 +2662,16 @@
         <v>59</v>
       </c>
       <c r="C71" t="s">
-        <v>116</v>
-      </c>
-      <c r="D71">
-        <f>2*1</f>
-        <v>0</v>
+        <v>118</v>
+      </c>
+      <c r="D71" t="s">
+        <v>156</v>
       </c>
       <c r="E71" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2641,17 +2682,16 @@
         <v>59</v>
       </c>
       <c r="C72" t="s">
-        <v>116</v>
-      </c>
-      <c r="D72">
-        <f>1*1</f>
-        <v>0</v>
+        <v>118</v>
+      </c>
+      <c r="D72" t="s">
+        <v>150</v>
       </c>
       <c r="E72" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2662,17 +2702,16 @@
         <v>60</v>
       </c>
       <c r="C73" t="s">
-        <v>126</v>
-      </c>
-      <c r="D73">
-        <f>4*1</f>
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="D73" t="s">
+        <v>155</v>
       </c>
       <c r="E73" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2683,17 +2722,16 @@
         <v>60</v>
       </c>
       <c r="C74" t="s">
-        <v>126</v>
-      </c>
-      <c r="D74">
-        <f>7*1+40/60</f>
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="D74" t="s">
+        <v>168</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2704,17 +2742,16 @@
         <v>61</v>
       </c>
       <c r="C75" t="s">
-        <v>116</v>
-      </c>
-      <c r="D75">
-        <f>2*1</f>
-        <v>0</v>
+        <v>118</v>
+      </c>
+      <c r="D75" t="s">
+        <v>156</v>
       </c>
       <c r="E75" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>196</v>
+        <v>231</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2725,17 +2762,16 @@
         <v>62</v>
       </c>
       <c r="C76" t="s">
-        <v>128</v>
-      </c>
-      <c r="D76">
-        <f>3*1</f>
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="D76" t="s">
+        <v>154</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2746,17 +2782,16 @@
         <v>63</v>
       </c>
       <c r="C77" t="s">
-        <v>121</v>
-      </c>
-      <c r="D77">
-        <f>1*1</f>
-        <v>0</v>
+        <v>123</v>
+      </c>
+      <c r="D77" t="s">
+        <v>150</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>198</v>
+        <v>233</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2767,17 +2802,16 @@
         <v>64</v>
       </c>
       <c r="C78" t="s">
-        <v>128</v>
-      </c>
-      <c r="D78">
-        <f>3*1</f>
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="D78" t="s">
+        <v>154</v>
       </c>
       <c r="E78" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>199</v>
+        <v>234</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2788,17 +2822,16 @@
         <v>64</v>
       </c>
       <c r="C79" t="s">
-        <v>128</v>
-      </c>
-      <c r="D79">
-        <f>6*1</f>
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="D79" t="s">
+        <v>152</v>
       </c>
       <c r="E79" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>199</v>
+        <v>234</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2809,17 +2842,16 @@
         <v>65</v>
       </c>
       <c r="C80" t="s">
-        <v>128</v>
-      </c>
-      <c r="D80">
-        <f>2*1</f>
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="D80" t="s">
+        <v>156</v>
       </c>
       <c r="E80" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2830,17 +2862,16 @@
         <v>66</v>
       </c>
       <c r="C81" t="s">
-        <v>128</v>
-      </c>
-      <c r="D81">
-        <f>6*1</f>
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="D81" t="s">
+        <v>152</v>
       </c>
       <c r="E81" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2851,17 +2882,16 @@
         <v>67</v>
       </c>
       <c r="C82" t="s">
-        <v>128</v>
-      </c>
-      <c r="D82">
-        <f>1*8</f>
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="D82" t="s">
+        <v>162</v>
       </c>
       <c r="E82" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2872,17 +2902,16 @@
         <v>67</v>
       </c>
       <c r="C83" t="s">
-        <v>128</v>
-      </c>
-      <c r="D83">
-        <f>2*1</f>
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="D83" t="s">
+        <v>156</v>
       </c>
       <c r="E83" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2893,17 +2922,16 @@
         <v>67</v>
       </c>
       <c r="C84" t="s">
-        <v>128</v>
-      </c>
-      <c r="D84">
-        <f>1*1</f>
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="D84" t="s">
+        <v>150</v>
       </c>
       <c r="E84" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2914,17 +2942,16 @@
         <v>68</v>
       </c>
       <c r="C85" t="s">
-        <v>121</v>
-      </c>
-      <c r="D85">
-        <f>2*1</f>
-        <v>0</v>
+        <v>123</v>
+      </c>
+      <c r="D85" t="s">
+        <v>156</v>
       </c>
       <c r="E85" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2935,17 +2962,16 @@
         <v>68</v>
       </c>
       <c r="C86" t="s">
-        <v>121</v>
-      </c>
-      <c r="D86">
-        <f>1*1</f>
-        <v>0</v>
+        <v>123</v>
+      </c>
+      <c r="D86" t="s">
+        <v>150</v>
       </c>
       <c r="E86" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2956,17 +2982,16 @@
         <v>68</v>
       </c>
       <c r="C87" t="s">
-        <v>121</v>
-      </c>
-      <c r="D87">
-        <f>2*1</f>
-        <v>0</v>
+        <v>123</v>
+      </c>
+      <c r="D87" t="s">
+        <v>156</v>
       </c>
       <c r="E87" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2977,17 +3002,16 @@
         <v>69</v>
       </c>
       <c r="C88" t="s">
-        <v>129</v>
-      </c>
-      <c r="D88">
-        <f>3*8</f>
-        <v>0</v>
+        <v>131</v>
+      </c>
+      <c r="D88" t="s">
+        <v>161</v>
       </c>
       <c r="E88" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2998,17 +3022,16 @@
         <v>69</v>
       </c>
       <c r="C89" t="s">
-        <v>129</v>
-      </c>
-      <c r="D89">
-        <f>4*1</f>
-        <v>0</v>
+        <v>131</v>
+      </c>
+      <c r="D89" t="s">
+        <v>155</v>
       </c>
       <c r="E89" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3019,17 +3042,16 @@
         <v>70</v>
       </c>
       <c r="C90" t="s">
-        <v>121</v>
-      </c>
-      <c r="D90">
-        <f>2*1</f>
-        <v>0</v>
+        <v>123</v>
+      </c>
+      <c r="D90" t="s">
+        <v>156</v>
       </c>
       <c r="E90" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3040,17 +3062,16 @@
         <v>70</v>
       </c>
       <c r="C91" t="s">
-        <v>121</v>
-      </c>
-      <c r="D91">
-        <f>3*1</f>
-        <v>0</v>
+        <v>123</v>
+      </c>
+      <c r="D91" t="s">
+        <v>154</v>
       </c>
       <c r="E91" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3061,17 +3082,16 @@
         <v>70</v>
       </c>
       <c r="C92" t="s">
-        <v>121</v>
-      </c>
-      <c r="D92">
-        <f>2*1</f>
-        <v>0</v>
+        <v>123</v>
+      </c>
+      <c r="D92" t="s">
+        <v>156</v>
       </c>
       <c r="E92" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3082,17 +3102,16 @@
         <v>70</v>
       </c>
       <c r="C93" t="s">
-        <v>121</v>
-      </c>
-      <c r="D93">
-        <f>1*1</f>
-        <v>0</v>
+        <v>123</v>
+      </c>
+      <c r="D93" t="s">
+        <v>150</v>
       </c>
       <c r="E93" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3103,17 +3122,16 @@
         <v>70</v>
       </c>
       <c r="C94" t="s">
-        <v>121</v>
-      </c>
-      <c r="D94">
-        <f>2*1</f>
-        <v>0</v>
+        <v>123</v>
+      </c>
+      <c r="D94" t="s">
+        <v>156</v>
       </c>
       <c r="E94" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3124,17 +3142,16 @@
         <v>71</v>
       </c>
       <c r="C95" t="s">
-        <v>121</v>
-      </c>
-      <c r="D95">
-        <f>2*1</f>
-        <v>0</v>
+        <v>123</v>
+      </c>
+      <c r="D95" t="s">
+        <v>156</v>
       </c>
       <c r="E95" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3145,17 +3162,16 @@
         <v>72</v>
       </c>
       <c r="C96" t="s">
-        <v>129</v>
-      </c>
-      <c r="D96">
-        <f>7*1</f>
-        <v>0</v>
+        <v>131</v>
+      </c>
+      <c r="D96" t="s">
+        <v>169</v>
       </c>
       <c r="E96" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>207</v>
+        <v>242</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3166,17 +3182,16 @@
         <v>73</v>
       </c>
       <c r="C97" t="s">
-        <v>118</v>
-      </c>
-      <c r="D97">
-        <f>3*1</f>
-        <v>0</v>
+        <v>120</v>
+      </c>
+      <c r="D97" t="s">
+        <v>154</v>
       </c>
       <c r="E97" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>208</v>
+        <v>243</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3187,17 +3202,16 @@
         <v>74</v>
       </c>
       <c r="C98" t="s">
-        <v>118</v>
-      </c>
-      <c r="D98">
-        <f>2*1+30/60</f>
-        <v>0</v>
+        <v>120</v>
+      </c>
+      <c r="D98" t="s">
+        <v>157</v>
       </c>
       <c r="E98" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3208,17 +3222,16 @@
         <v>75</v>
       </c>
       <c r="C99" t="s">
-        <v>121</v>
-      </c>
-      <c r="D99">
-        <f>4*1</f>
-        <v>0</v>
+        <v>123</v>
+      </c>
+      <c r="D99" t="s">
+        <v>155</v>
       </c>
       <c r="E99" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>210</v>
+        <v>245</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3229,17 +3242,16 @@
         <v>76</v>
       </c>
       <c r="C100" t="s">
-        <v>121</v>
-      </c>
-      <c r="D100">
-        <f>2*1</f>
-        <v>0</v>
+        <v>123</v>
+      </c>
+      <c r="D100" t="s">
+        <v>156</v>
       </c>
       <c r="E100" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3250,17 +3262,16 @@
         <v>76</v>
       </c>
       <c r="C101" t="s">
-        <v>121</v>
-      </c>
-      <c r="D101">
-        <f>3*1</f>
-        <v>0</v>
+        <v>123</v>
+      </c>
+      <c r="D101" t="s">
+        <v>154</v>
       </c>
       <c r="E101" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3271,17 +3282,16 @@
         <v>77</v>
       </c>
       <c r="C102" t="s">
-        <v>124</v>
-      </c>
-      <c r="D102">
-        <f>1*8</f>
-        <v>0</v>
+        <v>126</v>
+      </c>
+      <c r="D102" t="s">
+        <v>162</v>
       </c>
       <c r="E102" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3292,17 +3302,16 @@
         <v>78</v>
       </c>
       <c r="C103" t="s">
-        <v>124</v>
-      </c>
-      <c r="D103">
-        <f>1*8</f>
-        <v>0</v>
+        <v>126</v>
+      </c>
+      <c r="D103" t="s">
+        <v>162</v>
       </c>
       <c r="E103" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3313,17 +3322,16 @@
         <v>79</v>
       </c>
       <c r="C104" t="s">
-        <v>119</v>
-      </c>
-      <c r="D104">
-        <f>5*1</f>
-        <v>0</v>
+        <v>121</v>
+      </c>
+      <c r="D104" t="s">
+        <v>166</v>
       </c>
       <c r="E104" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3334,17 +3342,16 @@
         <v>79</v>
       </c>
       <c r="C105" t="s">
-        <v>120</v>
-      </c>
-      <c r="D105">
-        <f>2*1</f>
-        <v>0</v>
+        <v>122</v>
+      </c>
+      <c r="D105" t="s">
+        <v>156</v>
       </c>
       <c r="E105" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3355,17 +3362,16 @@
         <v>79</v>
       </c>
       <c r="C106" t="s">
-        <v>120</v>
-      </c>
-      <c r="D106">
-        <f>4*1</f>
-        <v>0</v>
+        <v>122</v>
+      </c>
+      <c r="D106" t="s">
+        <v>155</v>
       </c>
       <c r="E106" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3376,17 +3382,16 @@
         <v>80</v>
       </c>
       <c r="C107" t="s">
-        <v>130</v>
-      </c>
-      <c r="D107">
-        <f>7*1</f>
-        <v>0</v>
+        <v>132</v>
+      </c>
+      <c r="D107" t="s">
+        <v>169</v>
       </c>
       <c r="E107" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3397,17 +3402,16 @@
         <v>80</v>
       </c>
       <c r="C108" t="s">
-        <v>130</v>
-      </c>
-      <c r="D108">
-        <f>7*1</f>
-        <v>0</v>
+        <v>132</v>
+      </c>
+      <c r="D108" t="s">
+        <v>169</v>
       </c>
       <c r="E108" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3418,17 +3422,16 @@
         <v>80</v>
       </c>
       <c r="C109" t="s">
-        <v>130</v>
-      </c>
-      <c r="D109">
-        <f>7*1</f>
-        <v>0</v>
+        <v>132</v>
+      </c>
+      <c r="D109" t="s">
+        <v>169</v>
       </c>
       <c r="E109" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3439,17 +3442,16 @@
         <v>80</v>
       </c>
       <c r="C110" t="s">
-        <v>130</v>
-      </c>
-      <c r="D110">
-        <f>7*1</f>
-        <v>0</v>
+        <v>132</v>
+      </c>
+      <c r="D110" t="s">
+        <v>169</v>
       </c>
       <c r="E110" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3460,17 +3462,16 @@
         <v>80</v>
       </c>
       <c r="C111" t="s">
-        <v>117</v>
-      </c>
-      <c r="D111">
-        <f>5*1+30/60</f>
-        <v>0</v>
+        <v>119</v>
+      </c>
+      <c r="D111" t="s">
+        <v>170</v>
       </c>
       <c r="E111" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3481,17 +3482,16 @@
         <v>80</v>
       </c>
       <c r="C112" t="s">
-        <v>117</v>
-      </c>
-      <c r="D112">
-        <f>3*1+30/60</f>
-        <v>0</v>
+        <v>119</v>
+      </c>
+      <c r="D112" t="s">
+        <v>158</v>
       </c>
       <c r="E112" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3502,17 +3502,16 @@
         <v>80</v>
       </c>
       <c r="C113" t="s">
-        <v>130</v>
-      </c>
-      <c r="D113">
-        <f>6*1</f>
-        <v>0</v>
+        <v>132</v>
+      </c>
+      <c r="D113" t="s">
+        <v>152</v>
       </c>
       <c r="E113" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3523,17 +3522,16 @@
         <v>81</v>
       </c>
       <c r="C114" t="s">
-        <v>117</v>
-      </c>
-      <c r="D114">
-        <f>1*1+30/60</f>
-        <v>0</v>
+        <v>119</v>
+      </c>
+      <c r="D114" t="s">
+        <v>149</v>
       </c>
       <c r="E114" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3544,17 +3542,16 @@
         <v>82</v>
       </c>
       <c r="C115" t="s">
-        <v>118</v>
-      </c>
-      <c r="D115">
-        <f>1*1+15/60</f>
-        <v>0</v>
+        <v>120</v>
+      </c>
+      <c r="D115" t="s">
+        <v>171</v>
       </c>
       <c r="E115" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3565,17 +3562,16 @@
         <v>82</v>
       </c>
       <c r="C116" t="s">
-        <v>130</v>
-      </c>
-      <c r="D116">
-        <f>1*1+25/60</f>
-        <v>0</v>
+        <v>132</v>
+      </c>
+      <c r="D116" t="s">
+        <v>172</v>
       </c>
       <c r="E116" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3586,17 +3582,16 @@
         <v>82</v>
       </c>
       <c r="C117" t="s">
-        <v>131</v>
-      </c>
-      <c r="D117">
-        <f>1*1+15/60</f>
-        <v>0</v>
+        <v>133</v>
+      </c>
+      <c r="D117" t="s">
+        <v>171</v>
       </c>
       <c r="E117" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3607,17 +3602,16 @@
         <v>82</v>
       </c>
       <c r="C118" t="s">
-        <v>132</v>
-      </c>
-      <c r="D118">
-        <f>1*1+15/60</f>
-        <v>0</v>
+        <v>134</v>
+      </c>
+      <c r="D118" t="s">
+        <v>171</v>
       </c>
       <c r="E118" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3628,17 +3622,16 @@
         <v>82</v>
       </c>
       <c r="C119" t="s">
-        <v>133</v>
-      </c>
-      <c r="D119">
-        <f>1*1+15/60</f>
-        <v>0</v>
+        <v>135</v>
+      </c>
+      <c r="D119" t="s">
+        <v>171</v>
       </c>
       <c r="E119" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3649,17 +3642,16 @@
         <v>82</v>
       </c>
       <c r="C120" t="s">
-        <v>117</v>
-      </c>
-      <c r="D120">
-        <f>1*1+15/60</f>
-        <v>0</v>
+        <v>119</v>
+      </c>
+      <c r="D120" t="s">
+        <v>171</v>
       </c>
       <c r="E120" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3670,17 +3662,16 @@
         <v>83</v>
       </c>
       <c r="C121" t="s">
-        <v>134</v>
-      </c>
-      <c r="D121">
-        <f>1*8</f>
-        <v>0</v>
+        <v>136</v>
+      </c>
+      <c r="D121" t="s">
+        <v>162</v>
       </c>
       <c r="E121" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3691,17 +3682,16 @@
         <v>83</v>
       </c>
       <c r="C122" t="s">
-        <v>135</v>
-      </c>
-      <c r="D122">
-        <f>3*8</f>
-        <v>0</v>
+        <v>137</v>
+      </c>
+      <c r="D122" t="s">
+        <v>161</v>
       </c>
       <c r="E122" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3712,17 +3702,16 @@
         <v>83</v>
       </c>
       <c r="C123" t="s">
-        <v>134</v>
-      </c>
-      <c r="D123">
-        <f>3*1+30/60</f>
-        <v>0</v>
+        <v>136</v>
+      </c>
+      <c r="D123" t="s">
+        <v>158</v>
       </c>
       <c r="E123" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3733,17 +3722,16 @@
         <v>83</v>
       </c>
       <c r="C124" t="s">
-        <v>136</v>
-      </c>
-      <c r="D124">
-        <f>3*8+6*1</f>
-        <v>0</v>
+        <v>138</v>
+      </c>
+      <c r="D124" t="s">
+        <v>173</v>
       </c>
       <c r="E124" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3754,17 +3742,16 @@
         <v>83</v>
       </c>
       <c r="C125" t="s">
-        <v>136</v>
-      </c>
-      <c r="D125">
-        <f>1*8</f>
-        <v>0</v>
+        <v>138</v>
+      </c>
+      <c r="D125" t="s">
+        <v>162</v>
       </c>
       <c r="E125" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3775,17 +3762,16 @@
         <v>83</v>
       </c>
       <c r="C126" t="s">
-        <v>134</v>
-      </c>
-      <c r="D126">
-        <f>1*8</f>
-        <v>0</v>
+        <v>136</v>
+      </c>
+      <c r="D126" t="s">
+        <v>162</v>
       </c>
       <c r="E126" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3796,17 +3782,16 @@
         <v>84</v>
       </c>
       <c r="C127" t="s">
-        <v>121</v>
-      </c>
-      <c r="D127">
-        <f>2*1</f>
-        <v>0</v>
+        <v>123</v>
+      </c>
+      <c r="D127" t="s">
+        <v>156</v>
       </c>
       <c r="E127" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>219</v>
+        <v>254</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3817,17 +3802,16 @@
         <v>85</v>
       </c>
       <c r="C128" t="s">
-        <v>137</v>
-      </c>
-      <c r="D128">
-        <f>1*40</f>
-        <v>0</v>
+        <v>139</v>
+      </c>
+      <c r="D128" t="s">
+        <v>174</v>
       </c>
       <c r="E128" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3838,17 +3822,16 @@
         <v>86</v>
       </c>
       <c r="C129" t="s">
-        <v>138</v>
-      </c>
-      <c r="D129">
-        <f>1*8</f>
-        <v>0</v>
+        <v>140</v>
+      </c>
+      <c r="D129" t="s">
+        <v>162</v>
       </c>
       <c r="E129" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3859,17 +3842,16 @@
         <v>86</v>
       </c>
       <c r="C130" t="s">
-        <v>138</v>
-      </c>
-      <c r="D130">
-        <f>5*1</f>
-        <v>0</v>
+        <v>140</v>
+      </c>
+      <c r="D130" t="s">
+        <v>166</v>
       </c>
       <c r="E130" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3880,17 +3862,16 @@
         <v>86</v>
       </c>
       <c r="C131" t="s">
-        <v>138</v>
-      </c>
-      <c r="D131">
-        <f>5*1</f>
-        <v>0</v>
+        <v>140</v>
+      </c>
+      <c r="D131" t="s">
+        <v>166</v>
       </c>
       <c r="E131" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3901,17 +3882,16 @@
         <v>86</v>
       </c>
       <c r="C132" t="s">
-        <v>138</v>
-      </c>
-      <c r="D132">
-        <f>5*1</f>
-        <v>0</v>
+        <v>140</v>
+      </c>
+      <c r="D132" t="s">
+        <v>166</v>
       </c>
       <c r="E132" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3922,17 +3902,16 @@
         <v>87</v>
       </c>
       <c r="C133" t="s">
-        <v>139</v>
-      </c>
-      <c r="D133">
-        <f>1*40+1*1+30/60</f>
-        <v>0</v>
+        <v>141</v>
+      </c>
+      <c r="D133" t="s">
+        <v>175</v>
       </c>
       <c r="E133" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3943,17 +3922,16 @@
         <v>88</v>
       </c>
       <c r="C134" t="s">
-        <v>140</v>
-      </c>
-      <c r="D134">
-        <f>1*8+7*1</f>
-        <v>0</v>
+        <v>142</v>
+      </c>
+      <c r="D134" t="s">
+        <v>176</v>
       </c>
       <c r="E134" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>223</v>
+        <v>258</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3964,17 +3942,16 @@
         <v>88</v>
       </c>
       <c r="C135" t="s">
-        <v>140</v>
-      </c>
-      <c r="D135">
-        <f>1*8+1*1+30/60</f>
-        <v>0</v>
+        <v>142</v>
+      </c>
+      <c r="D135" t="s">
+        <v>177</v>
       </c>
       <c r="E135" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>223</v>
+        <v>258</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3985,17 +3962,16 @@
         <v>89</v>
       </c>
       <c r="C136" t="s">
-        <v>141</v>
-      </c>
-      <c r="D136">
-        <f>1*8</f>
-        <v>0</v>
+        <v>143</v>
+      </c>
+      <c r="D136" t="s">
+        <v>162</v>
       </c>
       <c r="E136" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4006,17 +3982,16 @@
         <v>89</v>
       </c>
       <c r="C137" t="s">
-        <v>141</v>
-      </c>
-      <c r="D137">
-        <f>4*1</f>
-        <v>0</v>
+        <v>143</v>
+      </c>
+      <c r="D137" t="s">
+        <v>155</v>
       </c>
       <c r="E137" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4027,17 +4002,16 @@
         <v>90</v>
       </c>
       <c r="C138" t="s">
-        <v>134</v>
-      </c>
-      <c r="D138">
-        <f>1*8</f>
-        <v>0</v>
+        <v>136</v>
+      </c>
+      <c r="D138" t="s">
+        <v>162</v>
       </c>
       <c r="E138" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4048,17 +4022,16 @@
         <v>90</v>
       </c>
       <c r="C139" t="s">
-        <v>134</v>
-      </c>
-      <c r="D139">
-        <f>4*1</f>
-        <v>0</v>
+        <v>136</v>
+      </c>
+      <c r="D139" t="s">
+        <v>155</v>
       </c>
       <c r="E139" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4069,17 +4042,16 @@
         <v>90</v>
       </c>
       <c r="C140" t="s">
-        <v>134</v>
-      </c>
-      <c r="D140">
-        <f>1*8</f>
-        <v>0</v>
+        <v>136</v>
+      </c>
+      <c r="D140" t="s">
+        <v>162</v>
       </c>
       <c r="E140" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4090,17 +4062,16 @@
         <v>91</v>
       </c>
       <c r="C141" t="s">
-        <v>142</v>
-      </c>
-      <c r="D141">
-        <f>1*40</f>
-        <v>0</v>
+        <v>144</v>
+      </c>
+      <c r="D141" t="s">
+        <v>161</v>
       </c>
       <c r="E141" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>226</v>
+        <v>261</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4111,59 +4082,56 @@
         <v>92</v>
       </c>
       <c r="C142" t="s">
-        <v>140</v>
-      </c>
-      <c r="D142">
-        <f>1*1</f>
-        <v>0</v>
+        <v>145</v>
+      </c>
+      <c r="D142" t="s">
+        <v>174</v>
       </c>
       <c r="E142" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B143" t="s">
         <v>93</v>
       </c>
       <c r="C143" t="s">
-        <v>132</v>
-      </c>
-      <c r="D143">
-        <f>1*1</f>
-        <v>0</v>
+        <v>144</v>
+      </c>
+      <c r="D143" t="s">
+        <v>178</v>
       </c>
       <c r="E143" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B144" t="s">
         <v>94</v>
       </c>
       <c r="C144" t="s">
-        <v>132</v>
-      </c>
-      <c r="D144">
-        <f>3*1</f>
-        <v>0</v>
+        <v>142</v>
+      </c>
+      <c r="D144" t="s">
+        <v>150</v>
       </c>
       <c r="E144" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4171,20 +4139,19 @@
         <v>16</v>
       </c>
       <c r="B145" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C145" t="s">
-        <v>132</v>
-      </c>
-      <c r="D145">
-        <f>2*1</f>
-        <v>0</v>
+        <v>134</v>
+      </c>
+      <c r="D145" t="s">
+        <v>150</v>
       </c>
       <c r="E145" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4192,20 +4159,19 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C146" t="s">
-        <v>116</v>
-      </c>
-      <c r="D146">
-        <f>15/60</f>
-        <v>0</v>
+        <v>134</v>
+      </c>
+      <c r="D146" t="s">
+        <v>154</v>
       </c>
       <c r="E146" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4216,17 +4182,16 @@
         <v>96</v>
       </c>
       <c r="C147" t="s">
-        <v>132</v>
-      </c>
-      <c r="D147">
-        <f>3*1</f>
-        <v>0</v>
+        <v>134</v>
+      </c>
+      <c r="D147" t="s">
+        <v>156</v>
       </c>
       <c r="E147" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>231</v>
+        <v>266</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4237,17 +4202,16 @@
         <v>97</v>
       </c>
       <c r="C148" t="s">
-        <v>131</v>
-      </c>
-      <c r="D148">
-        <f>7*1+15/60</f>
-        <v>0</v>
+        <v>118</v>
+      </c>
+      <c r="D148" t="s">
+        <v>153</v>
       </c>
       <c r="E148" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>232</v>
+        <v>267</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4258,17 +4222,16 @@
         <v>98</v>
       </c>
       <c r="C149" t="s">
-        <v>132</v>
-      </c>
-      <c r="D149">
-        <f>3*1</f>
-        <v>0</v>
+        <v>134</v>
+      </c>
+      <c r="D149" t="s">
+        <v>154</v>
       </c>
       <c r="E149" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>233</v>
+        <v>268</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4276,20 +4239,19 @@
         <v>16</v>
       </c>
       <c r="B150" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C150" t="s">
-        <v>132</v>
-      </c>
-      <c r="D150">
-        <f>2*1</f>
-        <v>0</v>
+        <v>133</v>
+      </c>
+      <c r="D150" t="s">
+        <v>179</v>
       </c>
       <c r="E150" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4297,20 +4259,19 @@
         <v>16</v>
       </c>
       <c r="B151" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C151" t="s">
-        <v>132</v>
-      </c>
-      <c r="D151">
-        <f>2*1+30/60</f>
-        <v>0</v>
+        <v>134</v>
+      </c>
+      <c r="D151" t="s">
+        <v>154</v>
       </c>
       <c r="E151" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4321,17 +4282,16 @@
         <v>100</v>
       </c>
       <c r="C152" t="s">
-        <v>132</v>
-      </c>
-      <c r="D152">
-        <f>5*1</f>
-        <v>0</v>
+        <v>134</v>
+      </c>
+      <c r="D152" t="s">
+        <v>156</v>
       </c>
       <c r="E152" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4339,20 +4299,19 @@
         <v>16</v>
       </c>
       <c r="B153" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C153" t="s">
-        <v>132</v>
-      </c>
-      <c r="D153">
-        <f>3*1</f>
-        <v>0</v>
+        <v>134</v>
+      </c>
+      <c r="D153" t="s">
+        <v>157</v>
       </c>
       <c r="E153" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4360,20 +4319,19 @@
         <v>16</v>
       </c>
       <c r="B154" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C154" t="s">
-        <v>132</v>
-      </c>
-      <c r="D154">
-        <f>2*1</f>
-        <v>0</v>
+        <v>134</v>
+      </c>
+      <c r="D154" t="s">
+        <v>166</v>
       </c>
       <c r="E154" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4381,20 +4339,19 @@
         <v>16</v>
       </c>
       <c r="B155" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C155" t="s">
-        <v>132</v>
-      </c>
-      <c r="D155">
-        <f>3*1</f>
-        <v>0</v>
+        <v>134</v>
+      </c>
+      <c r="D155" t="s">
+        <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4405,17 +4362,16 @@
         <v>102</v>
       </c>
       <c r="C156" t="s">
-        <v>131</v>
-      </c>
-      <c r="D156">
-        <f>2*8+5*1+45/60</f>
-        <v>0</v>
+        <v>134</v>
+      </c>
+      <c r="D156" t="s">
+        <v>156</v>
       </c>
       <c r="E156" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4426,17 +4382,16 @@
         <v>103</v>
       </c>
       <c r="C157" t="s">
-        <v>132</v>
-      </c>
-      <c r="D157">
-        <f>2*1</f>
-        <v>0</v>
+        <v>134</v>
+      </c>
+      <c r="D157" t="s">
+        <v>154</v>
       </c>
       <c r="E157" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4447,17 +4402,16 @@
         <v>104</v>
       </c>
       <c r="C158" t="s">
-        <v>143</v>
-      </c>
-      <c r="D158">
-        <f>1*8</f>
-        <v>0</v>
+        <v>133</v>
+      </c>
+      <c r="D158" t="s">
+        <v>180</v>
       </c>
       <c r="E158" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4465,20 +4419,19 @@
         <v>16</v>
       </c>
       <c r="B159" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C159" t="s">
-        <v>143</v>
-      </c>
-      <c r="D159">
-        <f>1*8</f>
-        <v>0</v>
+        <v>134</v>
+      </c>
+      <c r="D159" t="s">
+        <v>156</v>
       </c>
       <c r="E159" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4486,20 +4439,19 @@
         <v>16</v>
       </c>
       <c r="B160" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C160" t="s">
-        <v>143</v>
-      </c>
-      <c r="D160">
-        <f>1*8</f>
-        <v>0</v>
+        <v>146</v>
+      </c>
+      <c r="D160" t="s">
+        <v>162</v>
       </c>
       <c r="E160" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4507,20 +4459,19 @@
         <v>16</v>
       </c>
       <c r="B161" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C161" t="s">
-        <v>143</v>
-      </c>
-      <c r="D161">
-        <f>1*8</f>
-        <v>0</v>
+        <v>146</v>
+      </c>
+      <c r="D161" t="s">
+        <v>162</v>
       </c>
       <c r="E161" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4528,62 +4479,59 @@
         <v>16</v>
       </c>
       <c r="B162" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C162" t="s">
-        <v>143</v>
-      </c>
-      <c r="D162">
-        <f>1*8</f>
-        <v>0</v>
+        <v>146</v>
+      </c>
+      <c r="D162" t="s">
+        <v>162</v>
       </c>
       <c r="E162" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B163" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C163" t="s">
-        <v>133</v>
-      </c>
-      <c r="D163">
-        <f>2*1</f>
-        <v>0</v>
+        <v>146</v>
+      </c>
+      <c r="D163" t="s">
+        <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B164" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C164" t="s">
-        <v>133</v>
-      </c>
-      <c r="D164">
-        <f>4*1</f>
-        <v>0</v>
+        <v>146</v>
+      </c>
+      <c r="D164" t="s">
+        <v>162</v>
       </c>
       <c r="E164" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4591,20 +4539,19 @@
         <v>17</v>
       </c>
       <c r="B165" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C165" t="s">
-        <v>133</v>
-      </c>
-      <c r="D165">
-        <f>2*1</f>
-        <v>0</v>
+        <v>135</v>
+      </c>
+      <c r="D165" t="s">
+        <v>156</v>
       </c>
       <c r="E165" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4615,17 +4562,16 @@
         <v>107</v>
       </c>
       <c r="C166" t="s">
-        <v>133</v>
-      </c>
-      <c r="D166">
-        <f>2*1</f>
-        <v>0</v>
+        <v>135</v>
+      </c>
+      <c r="D166" t="s">
+        <v>155</v>
       </c>
       <c r="E166" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>242</v>
+        <v>277</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4636,17 +4582,16 @@
         <v>108</v>
       </c>
       <c r="C167" t="s">
-        <v>133</v>
-      </c>
-      <c r="D167">
-        <f>4*1</f>
-        <v>0</v>
+        <v>135</v>
+      </c>
+      <c r="D167" t="s">
+        <v>156</v>
       </c>
       <c r="E167" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4657,17 +4602,16 @@
         <v>109</v>
       </c>
       <c r="C168" t="s">
-        <v>133</v>
-      </c>
-      <c r="D168">
-        <f>4*1</f>
-        <v>0</v>
+        <v>135</v>
+      </c>
+      <c r="D168" t="s">
+        <v>156</v>
       </c>
       <c r="E168" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4678,17 +4622,16 @@
         <v>110</v>
       </c>
       <c r="C169" t="s">
-        <v>133</v>
-      </c>
-      <c r="D169">
-        <f>2*1</f>
-        <v>0</v>
+        <v>135</v>
+      </c>
+      <c r="D169" t="s">
+        <v>155</v>
       </c>
       <c r="E169" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>245</v>
+        <v>280</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4699,17 +4642,16 @@
         <v>111</v>
       </c>
       <c r="C170" t="s">
-        <v>131</v>
-      </c>
-      <c r="D170">
-        <f>7*1+15/60</f>
-        <v>0</v>
+        <v>135</v>
+      </c>
+      <c r="D170" t="s">
+        <v>155</v>
       </c>
       <c r="E170" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4720,17 +4662,16 @@
         <v>112</v>
       </c>
       <c r="C171" t="s">
-        <v>121</v>
-      </c>
-      <c r="D171">
-        <f>2*1</f>
-        <v>0</v>
+        <v>135</v>
+      </c>
+      <c r="D171" t="s">
+        <v>156</v>
       </c>
       <c r="E171" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>247</v>
+        <v>282</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4741,17 +4682,16 @@
         <v>113</v>
       </c>
       <c r="C172" t="s">
-        <v>144</v>
-      </c>
-      <c r="D172">
-        <f>1*40</f>
-        <v>0</v>
+        <v>133</v>
+      </c>
+      <c r="D172" t="s">
+        <v>179</v>
       </c>
       <c r="E172" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4762,17 +4702,16 @@
         <v>114</v>
       </c>
       <c r="C173" t="s">
-        <v>119</v>
-      </c>
-      <c r="D173">
-        <f>2*1</f>
-        <v>0</v>
+        <v>123</v>
+      </c>
+      <c r="D173" t="s">
+        <v>156</v>
       </c>
       <c r="E173" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4780,20 +4719,19 @@
         <v>17</v>
       </c>
       <c r="B174" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C174" t="s">
-        <v>119</v>
-      </c>
-      <c r="D174">
-        <f>3*1+30/60</f>
-        <v>0</v>
+        <v>147</v>
+      </c>
+      <c r="D174" t="s">
+        <v>174</v>
       </c>
       <c r="E174" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4801,41 +4739,79 @@
         <v>17</v>
       </c>
       <c r="B175" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C175" t="s">
-        <v>120</v>
-      </c>
-      <c r="D175">
-        <f>3*1</f>
-        <v>0</v>
+        <v>121</v>
+      </c>
+      <c r="D175" t="s">
+        <v>156</v>
       </c>
       <c r="E175" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>249</v>
+        <v>286</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" t="s">
+        <v>17</v>
+      </c>
+      <c r="B176" t="s">
+        <v>116</v>
+      </c>
+      <c r="C176" t="s">
+        <v>121</v>
+      </c>
+      <c r="D176" t="s">
+        <v>158</v>
+      </c>
+      <c r="E176" t="s">
+        <v>181</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" t="s">
+        <v>17</v>
+      </c>
+      <c r="B177" t="s">
+        <v>116</v>
+      </c>
+      <c r="C177" t="s">
+        <v>122</v>
+      </c>
+      <c r="D177" t="s">
+        <v>154</v>
+      </c>
+      <c r="E177" t="s">
+        <v>181</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" t="s">
         <v>18</v>
       </c>
-      <c r="B176" t="s">
-        <v>115</v>
-      </c>
-      <c r="C176" t="s">
-        <v>145</v>
-      </c>
-      <c r="D176">
-        <f>2*1</f>
-        <v>0</v>
-      </c>
-      <c r="E176" t="s">
-        <v>151</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>250</v>
+      <c r="B178" t="s">
+        <v>117</v>
+      </c>
+      <c r="C178" t="s">
+        <v>148</v>
+      </c>
+      <c r="D178" t="s">
+        <v>156</v>
+      </c>
+      <c r="E178" t="s">
+        <v>186</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -5015,6 +4991,8 @@
     <hyperlink ref="F174" r:id="rId173"/>
     <hyperlink ref="F175" r:id="rId174"/>
     <hyperlink ref="F176" r:id="rId175"/>
+    <hyperlink ref="F177" r:id="rId176"/>
+    <hyperlink ref="F178" r:id="rId177"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
